--- a/Teensy4.0_STM32_Mapping.xlsx
+++ b/Teensy4.0_STM32_Mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
   <si>
     <t xml:space="preserve">Teensy 4.0 </t>
   </si>
@@ -341,6 +341,36 @@
   </si>
   <si>
     <t>PecPin</t>
+  </si>
+  <si>
+    <t>3,3V</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>3V</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>+3,3V</t>
+  </si>
+  <si>
+    <t>+5V</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>NC</t>
   </si>
 </sst>
 </file>
@@ -391,13 +421,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -406,16 +442,85 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -433,168 +538,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -971,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,826 +957,959 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f>IF(B2=E2,"","X")</f>
-        <v>X</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>6</v>
+      <c r="A2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <f t="shared" ref="F3:F34" si="0">IF(B3=E3,"","X")</f>
-        <v>X</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
+      <c r="A3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="A4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(B6=E6,"","X")</f>
+        <v>X</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="O6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f t="shared" ref="F7:F38" si="0">IF(B7=E7,"","X")</f>
+        <v>X</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="2">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5" t="str">
+        <v>47</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="2">
-        <v>22</v>
-      </c>
-      <c r="F9" s="5" t="str">
+        <v>48</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G10" s="2" t="s">
-        <v>103</v>
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2">
-        <v>29</v>
-      </c>
-      <c r="F11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G11" s="2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="str">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2">
-        <v>23</v>
-      </c>
-      <c r="F13" s="5" t="str">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F14" s="5"/>
+      <c r="A14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="str">
-        <f>IF(B15=E15,"","X")</f>
-        <v/>
+        <v>29</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="O15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="2">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="2">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="2">
+        <v>23</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="O17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="2">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>IF(B19=E19,"","X")</f>
+        <v/>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B20" s="2">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E20" s="2">
         <v>10</v>
       </c>
-      <c r="F16" s="5" t="str">
-        <f>IF(B16=E16,"","X")</f>
-        <v/>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F20" s="3" t="str">
+        <f>IF(B20=E20,"","X")</f>
+        <v/>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>IF(B21=E21,"","X")</f>
+        <v/>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="2">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5" t="str">
-        <f>IF(B17=E17,"","X")</f>
-        <v/>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="2" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="2">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>IF(B22=E22,"","X")</f>
+        <v/>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="2">
+        <v>14</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="2">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="2">
+        <v>16</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>17</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="2">
-        <v>11</v>
-      </c>
-      <c r="F18" s="5" t="str">
-        <f>IF(B18=E18,"","X")</f>
-        <v/>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="F28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="2">
-        <v>14</v>
-      </c>
-      <c r="F20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="2">
-        <v>15</v>
-      </c>
-      <c r="F21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="2">
-        <v>16</v>
-      </c>
-      <c r="F22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="2">
+        <v>21</v>
+      </c>
+      <c r="F30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="2">
+        <v>9</v>
+      </c>
+      <c r="F32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="2">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="2">
-        <v>17</v>
-      </c>
-      <c r="F23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="2">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="2">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6</v>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="2">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="2">
-        <v>20</v>
-      </c>
-      <c r="F25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="2">
-        <v>21</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="2">
-        <v>21</v>
-      </c>
-      <c r="F26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="2">
-        <v>9</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="2">
-        <v>9</v>
-      </c>
-      <c r="F28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="2">
-        <v>8</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="2">
-        <v>8</v>
-      </c>
-      <c r="F29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="2">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="2">
-        <v>7</v>
-      </c>
-      <c r="F30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="2">
-        <v>6</v>
-      </c>
-      <c r="F31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="2">
-        <v>5</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="2">
-        <v>5</v>
-      </c>
-      <c r="F32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="2">
-        <v>3</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="2">
-        <v>3</v>
-      </c>
-      <c r="F33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="2">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2</v>
-      </c>
-      <c r="F34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H1048576 O12:O14 O2:O10">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Black">
+  <conditionalFormatting sqref="H1:H1048576 O6:O18">
+    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="Black">
       <formula>NOT(ISERROR(SEARCH("Black",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Brown">
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Brown">
       <formula>NOT(ISERROR(SEARCH("Brown",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Grey">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="Grey">
       <formula>NOT(ISERROR(SEARCH("Grey",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="Blue">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Blue">
       <formula>NOT(ISERROR(SEARCH("Blue",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="Red">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Red">
       <formula>NOT(ISERROR(SEARCH("Red",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="Orange">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Orange">
       <formula>NOT(ISERROR(SEARCH("Orange",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="19" operator="containsText" text="Purple">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="Purple">
       <formula>NOT(ISERROR(SEARCH("Purple",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="20" operator="containsText" text="Yellow">
+    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="Yellow">
       <formula>NOT(ISERROR(SEARCH("Yellow",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="21" operator="containsText" text="Green">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="Green">
       <formula>NOT(ISERROR(SEARCH("Green",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F34">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="F6:F38">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G34">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="G6:G38">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
-      <formula1>$O$2:$O$14</formula1>
+      <formula1>$O$6:$O$18</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Teensy4.0_STM32_Mapping.xlsx
+++ b/Teensy4.0_STM32_Mapping.xlsx
@@ -435,92 +435,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -916,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,68 +888,68 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1030,7 +961,7 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1060,7 +991,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1088,7 +1019,7 @@
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1118,7 +1049,7 @@
       <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1388,7 +1319,7 @@
         <v>84</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1415,7 +1346,7 @@
         <v>85</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1868,44 +1799,44 @@
     <mergeCell ref="D8:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576 O6:O18">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="Black">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Black">
       <formula>NOT(ISERROR(SEARCH("Black",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Brown">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Brown">
       <formula>NOT(ISERROR(SEARCH("Brown",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="Grey">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Grey">
       <formula>NOT(ISERROR(SEARCH("Grey",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Blue">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="Blue">
       <formula>NOT(ISERROR(SEARCH("Blue",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Red">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="Red">
       <formula>NOT(ISERROR(SEARCH("Red",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Orange">
+    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="Orange">
       <formula>NOT(ISERROR(SEARCH("Orange",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="Purple">
+    <cfRule type="containsText" dxfId="5" priority="19" operator="containsText" text="Purple">
       <formula>NOT(ISERROR(SEARCH("Purple",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="Yellow">
+    <cfRule type="containsText" dxfId="4" priority="20" operator="containsText" text="Yellow">
       <formula>NOT(ISERROR(SEARCH("Yellow",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="Green">
+    <cfRule type="containsText" dxfId="3" priority="21" operator="containsText" text="Green">
       <formula>NOT(ISERROR(SEARCH("Green",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F38">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G38">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">

--- a/Teensy4.0_STM32_Mapping.xlsx
+++ b/Teensy4.0_STM32_Mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="119">
   <si>
     <t xml:space="preserve">Teensy 4.0 </t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>NC</t>
+  </si>
+  <si>
+    <t>PpsPin</t>
   </si>
 </sst>
 </file>
@@ -845,15 +848,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.140625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="17.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
     <col min="6" max="6" width="3.5703125" style="2" customWidth="1"/>
@@ -996,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f t="shared" ref="F7:F38" si="0">IF(B7=E7,"","X")</f>
+        <f t="shared" ref="F7:F32" si="0">IF(B7=E7,"","X")</f>
         <v>X</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1069,26 +1073,29 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
         <v>17</v>
@@ -1096,26 +1103,29 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2">
         <v>23</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
         <v>18</v>
@@ -1123,29 +1133,29 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
         <v>19</v>
@@ -1153,29 +1163,23 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="2">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="2">
-        <v>22</v>
-      </c>
       <c r="F13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>116</v>
+        <f>IF(B13=E13,"","X")</f>
+        <v>X</v>
       </c>
       <c r="O13" t="s">
         <v>20</v>
@@ -1183,29 +1187,29 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="O14" t="s">
         <v>21</v>
@@ -1213,29 +1217,26 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="E15" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="O15" t="s">
         <v>115</v>
@@ -1243,19 +1244,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B16" s="2">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E16" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1264,532 +1262,556 @@
       <c r="H16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="O16" t="s">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>IF(B18=E18,"","X")</f>
+        <v/>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="2">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="2">
-        <v>23</v>
-      </c>
-      <c r="F17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="O17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="E19" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(B19=E19,"","X")</f>
         <v/>
       </c>
       <c r="G19" s="2" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="O19" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="2">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="2">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3" t="str">
-        <f>IF(B20=E20,"","X")</f>
-        <v/>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(B21=E21,"","X")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(B22=E22,"","X")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2">
+        <v>12</v>
+      </c>
       <c r="F23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(B23=E23,"","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(B24=E24,"","X")</f>
+        <v>X</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="2">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="2">
-        <v>15</v>
-      </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="2">
-        <v>8</v>
-      </c>
-      <c r="F33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(B34=E34,"","X")</f>
+        <v>X</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E35" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(B35=E35,"","X")</f>
+        <v>X</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(B36=E36,"","X")</f>
+        <v>X</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E37" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(B37=E37,"","X")</f>
+        <v>X</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F38" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B38=E38,"","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2">
+        <v>20</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>20</v>
+      </c>
+      <c r="F39" s="3" t="str">
+        <f>IF(B39=E39,"","X")</f>
         <v/>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H38" s="2" t="s">
+      <c r="G39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2">
+        <v>21</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="2">
+        <v>21</v>
+      </c>
+      <c r="F40" s="3" t="str">
+        <f>IF(B40=E40,"","X")</f>
+        <v/>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1798,7 +1820,7 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H1048576 O6:O18">
+  <conditionalFormatting sqref="O6:O20 H1:H1048576">
     <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Black">
       <formula>NOT(ISERROR(SEARCH("Black",H1)))</formula>
     </cfRule>
@@ -1830,17 +1852,17 @@
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F38">
+  <conditionalFormatting sqref="F34:F40 F6:F32">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G38">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="G34:G40 G6:G32">
+    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
-      <formula1>$O$6:$O$18</formula1>
+      <formula1>$O$6:$O$20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Teensy4.0_STM32_Mapping.xlsx
+++ b/Teensy4.0_STM32_Mapping.xlsx
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
         <v>113</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -942,7 +942,7 @@
         <v>114</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f>IF(B34=E34,"","X")</f>
+        <f t="shared" ref="F34:F40" si="1">IF(B34=E34,"","X")</f>
         <v>X</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -1670,7 +1670,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f>IF(B35=E35,"","X")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -1697,7 +1697,7 @@
         <v>16</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f>IF(B36=E36,"","X")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -1724,7 +1724,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="3" t="str">
-        <f>IF(B37=E37,"","X")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -1751,7 +1751,7 @@
         <v>18</v>
       </c>
       <c r="F38" s="3" t="str">
-        <f>IF(B38=E38,"","X")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -1778,7 +1778,7 @@
         <v>20</v>
       </c>
       <c r="F39" s="3" t="str">
-        <f>IF(B39=E39,"","X")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G39" s="2" t="s">
@@ -1805,7 +1805,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="3" t="str">
-        <f>IF(B40=E40,"","X")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G40" s="2" t="s">
